--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -451,379 +451,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>241001</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>006809</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>91.81</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>006810</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>91.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>27.22</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009007</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>兴全沪港深两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009448</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合A</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009449</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康申润一年持有期混合C</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.97</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>008515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>富兰克林国海基本面优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>28.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -958,25 +1128,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>870017</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发资管消费精选灵活配置混合</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.19</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>008177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>建信高股息主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>45.49</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>000761</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>国富健康优质生活股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>870017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>广发资管消费精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000761</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国富健康优质生活股票</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006781</t>
+          <t>009448</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通精选股票</t>
+          <t>泰康申润一年持有期混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>006781</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>汇丰晋信港股通精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005707</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国港股通量化精选股票</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>74.11</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>009449</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>泰康申润一年持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>008515</t>
+          <t>005707</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富兰克林国海基本面优选混合</t>
+          <t>富国港股通量化精选股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>80.51</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3963</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0791</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0582</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2512,4 +2513,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7448</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3215,4 +3216,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3224,7 +3225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,17 +3236,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3255,14 +3276,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.970000000000001</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3271,14 +3314,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.08</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3287,14 +3352,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.07</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3303,13 +3390,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4904</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4003,7 +4004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4014,17 +4015,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4034,14 +4055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.98</v>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4050,14 +4093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.970000000000001</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3165</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4066,14 +4131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.08</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4082,14 +4169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.07</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4098,13 +4207,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007354</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006781</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007357</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信港股通量化股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5162,7 +5163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5173,17 +5174,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5193,14 +5214,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.5</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5289</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5209,14 +5252,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.98</v>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -5225,14 +5290,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.970000000000001</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5241,14 +5328,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.08</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5257,14 +5366,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.07</v>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5273,13 +5404,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001942</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001943</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深汇鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.66</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>9.98</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.970000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>9.08</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>7.07</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.66</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012289</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012288</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康沪港深成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +2666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2877,7 +3824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3655,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4357,7 +5304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5021,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5913,7 +6860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01658-邮储银行.xlsx
+++ b/数据整理/stocks/港股/01658-邮储银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>4.43</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.88</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>9.98</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>9.970000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>9.08</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>7.07</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001703</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华沪港深增长股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1546,7 +2929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2666,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3824,7 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4602,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5304,7 +6687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5968,7 +7351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6858,516 +8241,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001605</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.07</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3626</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009007</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全沪港深两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7564</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1813</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1678</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>241001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝海外中国混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0487</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004316</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004317</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>82.77</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>